--- a/output/out_excel/train_parameter/data_labeled.xlsx
+++ b/output/out_excel/train_parameter/data_labeled.xlsx
@@ -484,13 +484,13 @@
         <v>0.152199831191253</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01635298694965904</v>
+        <v>0.03827233618454998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01296458285846332</v>
+        <v>0.03247769798436308</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9211135109232542</v>
+        <v>0.8877442450792397</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>0.152809862819601</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01660258540052315</v>
+        <v>0.01722336798284841</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008267366866130743</v>
+        <v>0.01036823397201161</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8730516998380228</v>
+        <v>0.97777193124281</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -552,13 +552,13 @@
         <v>0.1548706948852354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03940459306781845</v>
+        <v>0.1100806331996572</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03361417191936855</v>
+        <v>0.0894070994215852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9774621002823451</v>
+        <v>0.6729155746410738</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0.1535890470000311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01292645169254788</v>
+        <v>0.02896702165290135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01035988509204699</v>
+        <v>0.023198438221637</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9416542812933263</v>
+        <v>0.8948687861483507</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -688,13 +688,13 @@
         <v>0.1500685470403461</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04041761829276841</v>
+        <v>0.04881769538406525</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02638766193684846</v>
+        <v>0.03988679807555299</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8243986132244349</v>
+        <v>0.8761875282402057</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -722,13 +722,13 @@
         <v>0.1505395506871944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01503171488965437</v>
+        <v>0.0153954658819749</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01240527508292238</v>
+        <v>0.01277548275624916</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9857281714417642</v>
+        <v>0.9778221689690755</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>0.153442076477036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01660815330520263</v>
+        <v>0.01953871577594613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0142230072303987</v>
+        <v>0.01525361413894663</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8715894677750825</v>
+        <v>0.963392733986809</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -790,13 +790,13 @@
         <v>0.1502302888685375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01279703285670544</v>
+        <v>0.01527694327980593</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009791573035677377</v>
+        <v>0.01116844329407299</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9394075978674097</v>
+        <v>0.9819019886256762</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -824,13 +824,13 @@
         <v>0.1533592222479976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008130304056222218</v>
+        <v>0.009398219727310895</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006682411356533462</v>
+        <v>0.007985011453821937</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9680992441780241</v>
+        <v>0.9908878264805299</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -858,13 +858,13 @@
         <v>0.1518765235962878</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01803702132573671</v>
+        <v>0.043011340495216</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01503631801340665</v>
+        <v>0.03285187026852762</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9230250624366982</v>
+        <v>0.87144661793476</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -926,13 +926,13 @@
         <v>0.1533720706854411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007687955449990082</v>
+        <v>0.0114329995726591</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006561917046219958</v>
+        <v>0.009031354478747148</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9788892222029444</v>
+        <v>0.988939352242425</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -960,13 +960,13 @@
         <v>0.1514726121190802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01075570754281592</v>
+        <v>0.03402469959302017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008872026636887055</v>
+        <v>0.02759517351137924</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9439242829201236</v>
+        <v>0.8919195594780989</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1028,13 +1028,13 @@
         <v>0.1539299683251292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007995403417067535</v>
+        <v>0.009365056076055239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006768377670697115</v>
+        <v>0.007805381617066186</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9796150118175266</v>
+        <v>0.9916206177117171</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>0.1486780467535916</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0279723791323752</v>
+        <v>0.06893383870843871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02174322651999532</v>
+        <v>0.05893689614694798</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9096597855142254</v>
+        <v>0.6596614666864518</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>0.154811976931412</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02779272145427321</v>
+        <v>0.08758357601932995</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0232459567173704</v>
+        <v>0.08193394843334012</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9280423870205891</v>
+        <v>0.6533546374326038</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>0.1522071853511321</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007383851957236356</v>
+        <v>0.009958599028124186</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006460258527758</v>
+        <v>0.008979613300267827</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9819483193055167</v>
+        <v>0.9932731385953062</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0.1549292871340352</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04445665435319344</v>
+        <v>0.06983743145843234</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03333089267159709</v>
+        <v>0.05720128196113361</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8019153342782175</v>
+        <v>0.8170976857267184</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1368,13 +1368,13 @@
         <v>0.1538422741896173</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009750770480869166</v>
+        <v>0.004053788344421826</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0005813026212777572</v>
+        <v>0.003372044329074342</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9997710673628987</v>
+        <v>0.9991331937491382</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1436,13 +1436,13 @@
         <v>0.1527891302848145</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.001259307887700345</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.001259307887700345</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1470,13 +1470,13 @@
         <v>0.1493738906202475</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02262251315928901</v>
+        <v>0.03102470131072205</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01659380874979937</v>
+        <v>0.02507282769126183</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9870097687193921</v>
+        <v>0.9471220255892986</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1504,13 +1504,13 @@
         <v>0.153335518204626</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0346730913820239</v>
+        <v>0.1105565951751388</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02269748545574994</v>
+        <v>0.07936349729831112</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9062313840176837</v>
+        <v>0.5440696468150541</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>0.1535244964832452</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0158553723132982</v>
+        <v>0.04551055279069954</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01333071287929827</v>
+        <v>0.03772020820834515</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9570951639152118</v>
+        <v>0.8596485676655139</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>0.1503974162257461</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02638118982224897</v>
+        <v>0.03945000544631413</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02247360231279993</v>
+        <v>0.03383294239672407</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9632555036577544</v>
+        <v>0.8714344694802804</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02848180603908102</v>
+        <v>0.04587632670855927</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02242919171505224</v>
+        <v>0.0330300477873342</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9814910443607796</v>
+        <v>0.8329578218690425</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000434997377141952</v>
+        <v>0.01885899505183069</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0004214024681854727</v>
+        <v>0.01858977999586174</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9998938667982239</v>
+        <v>0.9625706352718906</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>0.153404935185486</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01964386777763636</v>
+        <v>0.02164130869719386</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01616136511330997</v>
+        <v>0.01768868926770477</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8756826780189476</v>
+        <v>0.9670921519138527</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0.1499156864434832</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004382023312163019</v>
+        <v>0.01389026083715355</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003816380705980649</v>
+        <v>0.01143272355649891</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9953460122779504</v>
+        <v>0.9887507849910595</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00617775690796053</v>
+        <v>0.01084397189992443</v>
       </c>
       <c r="H43" t="n">
-        <v>0.005096123713038053</v>
+        <v>0.009513209651886591</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9991430845110181</v>
+        <v>0.9878575925218348</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -1912,13 +1912,13 @@
         <v>0.1538052783981391</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007818550552060143</v>
+        <v>0.01257615179655825</v>
       </c>
       <c r="H44" t="n">
-        <v>0.006407177257121376</v>
+        <v>0.01002227647088219</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9724773289350154</v>
+        <v>0.9871874643350533</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
